--- a/config/default/forms/app/rdtoolkit-provision.xlsx
+++ b/config/default/forms/app/rdtoolkit-provision.xlsx
@@ -12,14 +12,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7miP6Z6wPzthiNHxJxj/K0rnhWl4bQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mjdFtF0uyH9HsXb8XTeIoLFjI96LQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="191">
   <si>
     <t>type</t>
   </si>
@@ -51,6 +51,9 @@
     <t>required</t>
   </si>
   <si>
+    <t>read_only</t>
+  </si>
+  <si>
     <t>relevant</t>
   </si>
   <si>
@@ -126,112 +129,133 @@
     <t>begin group</t>
   </si>
   <si>
+    <t>inputs</t>
+  </si>
+  <si>
+    <t>NO_LABEL</t>
+  </si>
+  <si>
+    <t>./source = 'user'</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>db:person</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>What is the patient's name?</t>
+  </si>
+  <si>
+    <t>db-object</t>
+  </si>
+  <si>
+    <t>patient_id</t>
+  </si>
+  <si>
+    <t>end group</t>
+  </si>
+  <si>
     <t>data</t>
   </si>
   <si>
-    <t>NO_LABEL</t>
-  </si>
-  <si>
-    <t>./source = 'user'</t>
-  </si>
-  <si>
     <t>field-list  rdtoolkit-provision</t>
   </si>
   <si>
-    <t>hidden</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>contact</t>
+    <t>text</t>
+  </si>
+  <si>
+    <t>__patient_uuid</t>
+  </si>
+  <si>
+    <t>../../inputs/contact/_id</t>
+  </si>
+  <si>
+    <t>__patient_name</t>
+  </si>
+  <si>
+    <t>Patient name</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>../../inputs/contact/name</t>
+  </si>
+  <si>
+    <t>__patient_id</t>
+  </si>
+  <si>
+    <t>Patient ID</t>
   </si>
   <si>
     <t>rdtoolkit-action-btn</t>
   </si>
   <si>
-    <t>db:person</t>
-  </si>
-  <si>
-    <t>_id</t>
-  </si>
-  <si>
-    <t>What is the patient's name?</t>
-  </si>
-  <si>
-    <t>db-object</t>
-  </si>
-  <si>
-    <t>patient_id</t>
-  </si>
-  <si>
-    <t>end group</t>
+    <t>../../inputs/contact/patient_id</t>
+  </si>
+  <si>
+    <t>rdtoolkit_session_id</t>
+  </si>
+  <si>
+    <t>Session ID</t>
+  </si>
+  <si>
+    <t>rdtoolkit_state</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>rdtoolkit_time_started</t>
+  </si>
+  <si>
+    <t>Started on</t>
+  </si>
+  <si>
+    <t>rdtoolkit_time_resolved</t>
+  </si>
+  <si>
+    <t>Results available on</t>
+  </si>
+  <si>
+    <t>rdtoolkit_filter</t>
+  </si>
+  <si>
+    <t>mal_pf</t>
+  </si>
+  <si>
+    <t>rdtoolkit_api_url</t>
   </si>
   <si>
     <t>calculate</t>
   </si>
   <si>
-    <t>Patient ID</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>../contact/patient_id</t>
+    <t>patient_uuid</t>
+  </si>
+  <si>
+    <t>../inputs/contact/_id</t>
+  </si>
+  <si>
+    <t>../inputs/contact/patient_id</t>
   </si>
   <si>
     <t>patient_name</t>
   </si>
   <si>
-    <t>Patient name</t>
-  </si>
-  <si>
-    <t>../contact/name</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>rdtoolkit_session_id</t>
-  </si>
-  <si>
-    <t>Session ID</t>
-  </si>
-  <si>
-    <t>rdtoolkit_state</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>rdtoolkit_time_started</t>
-  </si>
-  <si>
-    <t>Started on</t>
-  </si>
-  <si>
-    <t>rdtoolkit_time_resolved</t>
-  </si>
-  <si>
-    <t>Results available on</t>
-  </si>
-  <si>
-    <t>rdtoolkit_filter</t>
-  </si>
-  <si>
-    <t>mal_pf</t>
-  </si>
-  <si>
-    <t>rdtoolkit_api_url</t>
-  </si>
-  <si>
-    <t>patient_uuid</t>
-  </si>
-  <si>
-    <t>../data/contact/_id</t>
+    <t>../inputs/contact/name</t>
   </si>
   <si>
     <t>list_name</t>
@@ -577,7 +601,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd-MM-yyyy HH-mm-ss"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -594,15 +618,18 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
       <sz val="8.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
     </font>
     <font>
       <u/>
@@ -725,67 +752,114 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="56">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -809,28 +883,28 @@
     <xf borderId="0" fillId="15" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="16" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="16" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1073,20 +1147,20 @@
     <col customWidth="1" hidden="1" min="6" max="6" width="8.71"/>
     <col customWidth="1" hidden="1" min="7" max="7" width="8.86"/>
     <col customWidth="1" hidden="1" min="8" max="9" width="8.14"/>
-    <col customWidth="1" min="10" max="10" width="8.29"/>
-    <col customWidth="1" min="11" max="11" width="15.14"/>
-    <col customWidth="1" min="12" max="12" width="17.43"/>
-    <col customWidth="1" min="13" max="13" width="11.71"/>
-    <col customWidth="1" min="14" max="14" width="19.71"/>
-    <col customWidth="1" hidden="1" min="15" max="20" width="25.86"/>
-    <col customWidth="1" min="21" max="21" width="19.0"/>
-    <col customWidth="1" min="22" max="22" width="11.14"/>
-    <col customWidth="1" min="23" max="23" width="7.14"/>
-    <col customWidth="1" hidden="1" min="24" max="29" width="14.43"/>
-    <col customWidth="1" min="30" max="30" width="7.14"/>
-    <col customWidth="1" min="31" max="31" width="12.0"/>
-    <col customWidth="1" min="32" max="32" width="11.57"/>
-    <col customWidth="1" min="33" max="36" width="29.86"/>
+    <col customWidth="1" min="10" max="11" width="8.29"/>
+    <col customWidth="1" min="12" max="12" width="15.14"/>
+    <col customWidth="1" min="13" max="13" width="17.43"/>
+    <col customWidth="1" min="14" max="14" width="11.71"/>
+    <col customWidth="1" min="15" max="15" width="19.71"/>
+    <col customWidth="1" hidden="1" min="16" max="21" width="25.86"/>
+    <col customWidth="1" min="22" max="22" width="19.0"/>
+    <col customWidth="1" min="23" max="23" width="11.14"/>
+    <col customWidth="1" min="24" max="24" width="7.14"/>
+    <col customWidth="1" hidden="1" min="25" max="30" width="14.43"/>
+    <col customWidth="1" min="31" max="31" width="7.14"/>
+    <col customWidth="1" min="32" max="32" width="12.0"/>
+    <col customWidth="1" min="33" max="33" width="11.57"/>
+    <col customWidth="1" min="34" max="39" width="29.86"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1120,7 +1194,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1189,124 +1263,89 @@
       <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
+      <c r="AI1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="4"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="M2" s="4"/>
+      <c r="AG2" s="4"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="J3" s="8"/>
-      <c r="AF3" s="9"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="B4" s="4"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="M4" s="4"/>
+      <c r="AG4" s="4"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="14"/>
-      <c r="AI4" s="14"/>
-      <c r="AJ4" s="14"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>36</v>
+      <c r="C5" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1316,10 +1355,8 @@
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
-      <c r="L5" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
@@ -1337,24 +1374,29 @@
       <c r="AB5" s="13"/>
       <c r="AC5" s="13"/>
       <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13" t="s">
+      <c r="AE5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="14"/>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="14"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>44</v>
+      <c r="A6" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -1362,11 +1404,9 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="12"/>
+      <c r="J6" s="13"/>
       <c r="K6" s="13"/>
-      <c r="L6" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
@@ -1387,20 +1427,25 @@
       <c r="AD6" s="13"/>
       <c r="AE6" s="13"/>
       <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="14"/>
-      <c r="AJ6" s="14"/>
+      <c r="AG6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>39</v>
+      <c r="A7" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>36</v>
+        <v>44</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -1408,10 +1453,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
       <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="M7" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
@@ -1431,20 +1478,23 @@
       <c r="AD7" s="13"/>
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -1455,7 +1505,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
@@ -1475,19 +1525,24 @@
       <c r="AD8" s="13"/>
       <c r="AE8" s="13"/>
       <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="15"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="11" t="s">
-        <v>49</v>
+      <c r="A9" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -1497,7 +1552,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="M9" s="14"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
@@ -1517,516 +1572,857 @@
       <c r="AD9" s="13"/>
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="J10" s="8"/>
-      <c r="AF10" s="9"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
+      <c r="A10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="16" t="s">
+      <c r="B11" s="4"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="M11" s="4"/>
+      <c r="AG11" s="4"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="B13" s="16"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="M13" s="16"/>
+      <c r="AG13" s="16"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="18"/>
-      <c r="AG11" s="18"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="19"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
-      <c r="AE13" s="18"/>
-      <c r="AF13" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG13" s="18"/>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="19"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="18"/>
-      <c r="AF14" s="18"/>
-      <c r="AG14" s="18"/>
-      <c r="AH14" s="19"/>
-      <c r="AI14" s="19"/>
-      <c r="AJ14" s="19"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="18"/>
-      <c r="AD15" s="18"/>
-      <c r="AE15" s="18"/>
-      <c r="AF15" s="18"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
       <c r="AG15" s="18"/>
-      <c r="AH15" s="19"/>
       <c r="AI15" s="19"/>
       <c r="AJ15" s="19"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
+      <c r="AK15" s="19"/>
+      <c r="AL15" s="19"/>
+      <c r="AM15" s="19"/>
+    </row>
+    <row r="16">
       <c r="A16" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="22"/>
+      <c r="AK16" s="22"/>
+      <c r="AL16" s="23"/>
+      <c r="AM16" s="23"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="27"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="29"/>
+      <c r="AJ17" s="29"/>
+      <c r="AK17" s="29"/>
+      <c r="AL17" s="29"/>
+      <c r="AM17" s="29"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="27"/>
+      <c r="M18" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="24"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="29"/>
+      <c r="AJ18" s="29"/>
+      <c r="AK18" s="29"/>
+      <c r="AL18" s="29"/>
+      <c r="AM18" s="29"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="21"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="29"/>
+      <c r="AJ19" s="29"/>
+      <c r="AK19" s="29"/>
+      <c r="AL19" s="29"/>
+      <c r="AM19" s="29"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C20" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18" t="s">
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
-      <c r="AG16" s="18"/>
-      <c r="AH16" s="19"/>
-      <c r="AI16" s="19"/>
-      <c r="AJ16" s="19"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="20" t="s">
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="29"/>
+      <c r="AL20" s="29"/>
+      <c r="AM20" s="29"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18" t="s">
+      <c r="C21" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18" t="s">
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="29"/>
+      <c r="AJ21" s="29"/>
+      <c r="AK21" s="29"/>
+      <c r="AL21" s="29"/>
+      <c r="AM21" s="29"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AG17" s="18"/>
-      <c r="AH17" s="19"/>
-      <c r="AI17" s="19"/>
-      <c r="AJ17" s="19"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18" t="s">
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="29"/>
+      <c r="AJ22" s="29"/>
+      <c r="AK22" s="29"/>
+      <c r="AL22" s="29"/>
+      <c r="AM22" s="29"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="21"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="21"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18" t="s">
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AG18" s="18"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="19"/>
-      <c r="AJ18" s="19"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="22" t="s">
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="29"/>
+      <c r="AJ23" s="29"/>
+      <c r="AK23" s="29"/>
+      <c r="AL23" s="29"/>
+      <c r="AM23" s="29"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="33"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="29"/>
+      <c r="AK24" s="29"/>
+      <c r="AL24" s="29"/>
+      <c r="AM24" s="29"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="6"/>
-      <c r="AJ20" s="6"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="24"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="24"/>
-      <c r="AD22" s="24"/>
-      <c r="AE22" s="24"/>
-      <c r="AF22" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG22" s="24"/>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="26"/>
-      <c r="AJ22" s="26"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="8"/>
+    </row>
     <row r="27" ht="15.75" customHeight="1"/>
     <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="36"/>
+      <c r="AB29" s="36"/>
+      <c r="AC29" s="36"/>
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="36"/>
+      <c r="AF29" s="36"/>
+      <c r="AG29" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH29" s="36"/>
+      <c r="AI29" s="36"/>
+      <c r="AJ29" s="36"/>
+      <c r="AK29" s="36"/>
+      <c r="AL29" s="36"/>
+      <c r="AM29" s="36"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="J30" s="39"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="36"/>
+      <c r="Z30" s="36"/>
+      <c r="AA30" s="36"/>
+      <c r="AB30" s="36"/>
+      <c r="AC30" s="36"/>
+      <c r="AD30" s="36"/>
+      <c r="AE30" s="36"/>
+      <c r="AF30" s="36"/>
+      <c r="AG30" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH30" s="36"/>
+      <c r="AI30" s="36"/>
+      <c r="AJ30" s="36"/>
+      <c r="AK30" s="36"/>
+      <c r="AL30" s="36"/>
+      <c r="AM30" s="36"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="J31" s="39"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="36"/>
+      <c r="AC31" s="36"/>
+      <c r="AD31" s="36"/>
+      <c r="AE31" s="36"/>
+      <c r="AF31" s="36"/>
+      <c r="AG31" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH31" s="36"/>
+      <c r="AI31" s="36"/>
+      <c r="AJ31" s="36"/>
+      <c r="AK31" s="36"/>
+      <c r="AL31" s="36"/>
+      <c r="AM31" s="36"/>
+    </row>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
@@ -2709,9 +3105,14 @@
     <row r="711" ht="15.75" customHeight="1"/>
     <row r="712" ht="15.75" customHeight="1"/>
     <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J18 J22">
+    <dataValidation type="list" allowBlank="1" sqref="J2:K15 J17:K24">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2737,846 +3138,846 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="36"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="36"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="36"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
+      <c r="A25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="36"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="49"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="49"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="49"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="36"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="36"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="49"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
     </row>
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1"/>
@@ -4569,81 +4970,81 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
+      <c r="A1" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="40">
+      <c r="A2" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="53">
         <f>NOW()</f>
-        <v>44328.27703</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
+        <v>44336.9432</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -5648,1444 +6049,1444 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
+      <c r="A2" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
+      <c r="A3" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
+      <c r="A5" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
+      <c r="A6" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="36" t="s">
+      <c r="A7" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="49"/>
+      <c r="W29" s="49"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="49"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="36" t="s">
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="49"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="49"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B34" s="8" t="str">
+      <c r="A34" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="5" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>128</v>
+      <c r="C34" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" s="8" t="str">
+      <c r="A35" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="5" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>129</v>
+      <c r="C35" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B36" s="8" t="str">
+      <c r="A36" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="5" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>130</v>
+      <c r="C36" s="5" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B37" s="8" t="str">
+      <c r="A37" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="5" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>131</v>
+      <c r="C37" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" s="8" t="str">
+      <c r="A38" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="5" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>132</v>
+      <c r="C38" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B39" s="8" t="str">
+      <c r="A39" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" s="5" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>133</v>
+      <c r="C39" s="5" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B40" s="8" t="str">
+      <c r="A40" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="5" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>134</v>
+      <c r="C40" s="5" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B41" s="8" t="str">
+      <c r="A41" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" s="5" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B42" s="8" t="str">
+      <c r="B42" s="5" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>136</v>
+      <c r="C42" s="5" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>123</v>
+      <c r="A43" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="8" t="str">
+      <c r="B44" s="5" t="str">
         <f t="shared" ref="B44:B47" si="2">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C44, "(", ""), ")", "")), " ", "_")</f>
         <v/>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B45" s="8" t="str">
+      <c r="A45" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="5" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>138</v>
+      <c r="C45" s="5" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B46" s="8" t="str">
+      <c r="A46" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="5" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>139</v>
+      <c r="C46" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" s="8" t="str">
+      <c r="B47" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="B48" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="C48" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="35"/>
-      <c r="S48" s="35"/>
-      <c r="T48" s="35"/>
-      <c r="U48" s="35"/>
-      <c r="V48" s="35"/>
-      <c r="W48" s="35"/>
+      <c r="A48" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="48"/>
+      <c r="P48" s="48"/>
+      <c r="Q48" s="48"/>
+      <c r="R48" s="48"/>
+      <c r="S48" s="48"/>
+      <c r="T48" s="48"/>
+      <c r="U48" s="48"/>
+      <c r="V48" s="48"/>
+      <c r="W48" s="48"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="B49" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="42"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35"/>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="35"/>
-      <c r="V49" s="35"/>
-      <c r="W49" s="35"/>
+      <c r="A49" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="48"/>
+      <c r="P49" s="48"/>
+      <c r="Q49" s="48"/>
+      <c r="R49" s="48"/>
+      <c r="S49" s="48"/>
+      <c r="T49" s="48"/>
+      <c r="U49" s="48"/>
+      <c r="V49" s="48"/>
+      <c r="W49" s="48"/>
     </row>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>147</v>
+      <c r="A51" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>149</v>
+      <c r="A52" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>151</v>
+      <c r="A53" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C54" s="8" t="s">
+      <c r="A54" s="5" t="s">
         <v>153</v>
       </c>
+      <c r="B54" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>155</v>
+      <c r="A55" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>123</v>
+      <c r="A56" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="B58" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="C58" s="42" t="s">
-        <v>158</v>
+      <c r="A58" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58" s="55" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="B59" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="C59" s="42" t="s">
-        <v>160</v>
+      <c r="A59" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" s="55" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="B60" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C60" s="42" t="s">
-        <v>162</v>
+      <c r="A60" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="55" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="B61" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="C61" s="42" t="s">
-        <v>123</v>
+      <c r="A61" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" s="55" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="B63" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="C63" s="42" t="s">
-        <v>165</v>
+      <c r="A63" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" s="55" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="B64" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="C64" s="42" t="s">
-        <v>167</v>
+      <c r="A64" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="B64" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C64" s="55" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="B65" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="C65" s="42" t="s">
-        <v>169</v>
+      <c r="A65" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="B65" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" s="55" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="B66" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="C66" s="42" t="s">
+      <c r="A66" s="48" t="s">
         <v>171</v>
       </c>
+      <c r="B66" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="C66" s="55" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="B67" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="C67" s="42" t="s">
-        <v>173</v>
+      <c r="A67" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="B67" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="C67" s="55" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>176</v>
+      <c r="A69" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>178</v>
+      <c r="A70" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C72" s="37" t="s">
-        <v>138</v>
+      <c r="A72" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C72" s="50" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>182</v>
+      <c r="A73" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>123</v>
+      <c r="A74" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/config/default/forms/app/rdtoolkit-provision.xlsx
+++ b/config/default/forms/app/rdtoolkit-provision.xlsx
@@ -12,14 +12,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mjdFtF0uyH9HsXb8XTeIoLFjI96LQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mh+EE6gFPFc28JUCnFFpjBzsa3Q4w=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="194">
   <si>
     <t>type</t>
   </si>
@@ -171,18 +171,12 @@
     <t>data</t>
   </si>
   <si>
-    <t>field-list  rdtoolkit-provision</t>
+    <t xml:space="preserve">rdtoolkit-provision field-list </t>
   </si>
   <si>
     <t>text</t>
   </si>
   <si>
-    <t>__patient_uuid</t>
-  </si>
-  <si>
-    <t>../../inputs/contact/_id</t>
-  </si>
-  <si>
     <t>__patient_name</t>
   </si>
   <si>
@@ -192,6 +186,9 @@
     <t>yes</t>
   </si>
   <si>
+    <t>rdtoolkit-patient-name</t>
+  </si>
+  <si>
     <t>../../inputs/contact/name</t>
   </si>
   <si>
@@ -201,43 +198,55 @@
     <t>Patient ID</t>
   </si>
   <si>
-    <t>rdtoolkit-action-btn</t>
+    <t>rdtoolkit-patient-id</t>
   </si>
   <si>
     <t>../../inputs/contact/patient_id</t>
   </si>
   <si>
-    <t>rdtoolkit_session_id</t>
-  </si>
-  <si>
-    <t>Session ID</t>
-  </si>
-  <si>
     <t>rdtoolkit_state</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
+    <t>rdtoolkit-state hidden</t>
+  </si>
+  <si>
     <t>rdtoolkit_time_started</t>
   </si>
   <si>
     <t>Started on</t>
   </si>
   <si>
+    <t>rdtoolkit-time-started hidden</t>
+  </si>
+  <si>
     <t>rdtoolkit_time_resolved</t>
   </si>
   <si>
     <t>Results available on</t>
   </si>
   <si>
+    <t>rdtoolkit-time-resolved hidden</t>
+  </si>
+  <si>
     <t>rdtoolkit_filter</t>
   </si>
   <si>
+    <t>rdtoolkit-filter hidden</t>
+  </si>
+  <si>
     <t>mal_pf</t>
   </si>
   <si>
     <t>rdtoolkit_api_url</t>
+  </si>
+  <si>
+    <t>rdtoolkit-api-url hidden</t>
+  </si>
+  <si>
+    <t>https://example.com/api</t>
   </si>
   <si>
     <t>calculate</t>
@@ -601,7 +610,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd-MM-yyyy HH-mm-ss"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -622,15 +631,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <sz val="8.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-    </font>
+    <font/>
     <font>
       <u/>
       <color rgb="FF1155CC"/>
@@ -752,114 +758,60 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -883,28 +835,28 @@
     <xf borderId="0" fillId="15" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="16" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="16" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1147,20 +1099,22 @@
     <col customWidth="1" hidden="1" min="6" max="6" width="8.71"/>
     <col customWidth="1" hidden="1" min="7" max="7" width="8.86"/>
     <col customWidth="1" hidden="1" min="8" max="9" width="8.14"/>
-    <col customWidth="1" min="10" max="11" width="8.29"/>
+    <col customWidth="1" min="10" max="10" width="10.0"/>
+    <col customWidth="1" min="11" max="11" width="10.43"/>
     <col customWidth="1" min="12" max="12" width="15.14"/>
-    <col customWidth="1" min="13" max="13" width="17.43"/>
-    <col customWidth="1" min="14" max="14" width="11.71"/>
-    <col customWidth="1" min="15" max="15" width="19.71"/>
+    <col customWidth="1" min="13" max="13" width="26.43"/>
+    <col customWidth="1" min="14" max="14" width="9.29"/>
+    <col customWidth="1" hidden="1" min="15" max="15" width="19.71"/>
     <col customWidth="1" hidden="1" min="16" max="21" width="25.86"/>
-    <col customWidth="1" min="22" max="22" width="19.0"/>
-    <col customWidth="1" min="23" max="23" width="11.14"/>
-    <col customWidth="1" min="24" max="24" width="7.14"/>
-    <col customWidth="1" hidden="1" min="25" max="30" width="14.43"/>
-    <col customWidth="1" min="31" max="31" width="7.14"/>
-    <col customWidth="1" min="32" max="32" width="12.0"/>
-    <col customWidth="1" min="33" max="33" width="11.57"/>
-    <col customWidth="1" min="34" max="39" width="29.86"/>
+    <col customWidth="1" min="22" max="22" width="24.43"/>
+    <col customWidth="1" hidden="1" min="23" max="23" width="11.14"/>
+    <col customWidth="1" hidden="1" min="24" max="24" width="7.14"/>
+    <col hidden="1" min="25" max="30" width="14.43"/>
+    <col customWidth="1" min="31" max="31" width="23.71"/>
+    <col customWidth="1" hidden="1" min="32" max="32" width="22.57"/>
+    <col customWidth="1" min="33" max="33" width="15.0"/>
+    <col customWidth="1" hidden="1" min="34" max="35" width="29.86"/>
+    <col customWidth="1" min="36" max="39" width="29.86"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1194,7 +1148,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1266,1162 +1220,1056 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="4"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="M2" s="4"/>
-      <c r="AG2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="AG2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="8"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="4"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="M4" s="4"/>
-      <c r="AG4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="AG4" s="3"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="14" t="s">
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="14" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="14" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="15"/>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="15"/>
-      <c r="AM7" s="15"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="15"/>
-      <c r="AJ8" s="15"/>
-      <c r="AK8" s="15"/>
-      <c r="AL8" s="15"/>
-      <c r="AM8" s="15"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="15"/>
-      <c r="AK9" s="15"/>
-      <c r="AL9" s="15"/>
-      <c r="AM9" s="15"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="15"/>
-      <c r="AL10" s="15"/>
-      <c r="AM10" s="15"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="4"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="M11" s="4"/>
-      <c r="AG11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="AG11" s="3"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="8"/>
-      <c r="AM12" s="8"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="16"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="M13" s="16"/>
-      <c r="AG13" s="16"/>
+      <c r="B13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="AG13" s="3"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="7"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
       <c r="M14" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="8"/>
-      <c r="AI14" s="8"/>
-      <c r="AJ14" s="8"/>
-      <c r="AK14" s="8"/>
-      <c r="AL14" s="8"/>
-      <c r="AM14" s="8"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="AG15" s="18"/>
-      <c r="AI15" s="19"/>
-      <c r="AJ15" s="19"/>
-      <c r="AK15" s="19"/>
-      <c r="AL15" s="19"/>
-      <c r="AM15" s="19"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
     </row>
     <row r="16">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="15"/>
+      <c r="AJ16" s="15"/>
+      <c r="AK16" s="15"/>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="15"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="12"/>
+      <c r="M17" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="15"/>
+      <c r="AJ17" s="15"/>
+      <c r="AK17" s="15"/>
+      <c r="AL17" s="15"/>
+      <c r="AM17" s="15"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="15"/>
+      <c r="AL18" s="15"/>
+      <c r="AM18" s="15"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="15"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="15"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="15"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="24" t="s">
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="22"/>
-      <c r="AG16" s="24" t="s">
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="15"/>
+      <c r="AK21" s="15"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="15"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="22"/>
-      <c r="AJ16" s="22"/>
-      <c r="AK16" s="22"/>
-      <c r="AL16" s="23"/>
-      <c r="AM16" s="23"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" s="27"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="27"/>
-      <c r="AH17" s="27"/>
-      <c r="AI17" s="29"/>
-      <c r="AJ17" s="29"/>
-      <c r="AK17" s="29"/>
-      <c r="AL17" s="29"/>
-      <c r="AM17" s="29"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="L18" s="27"/>
-      <c r="M18" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="27"/>
-      <c r="AF18" s="27"/>
-      <c r="AG18" s="24"/>
-      <c r="AH18" s="27"/>
-      <c r="AI18" s="29"/>
-      <c r="AJ18" s="29"/>
-      <c r="AK18" s="29"/>
-      <c r="AL18" s="29"/>
-      <c r="AM18" s="29"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="21"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27" t="s">
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="15"/>
+      <c r="AJ22" s="15"/>
+      <c r="AK22" s="15"/>
+      <c r="AL22" s="15"/>
+      <c r="AM22" s="15"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="27"/>
-      <c r="AF19" s="27"/>
-      <c r="AG19" s="27" t="s">
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="19"/>
+      <c r="AJ27" s="19"/>
+      <c r="AK27" s="19"/>
+      <c r="AL27" s="19"/>
+      <c r="AM27" s="19"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AH19" s="27"/>
-      <c r="AI19" s="29"/>
-      <c r="AJ19" s="29"/>
-      <c r="AK19" s="29"/>
-      <c r="AL19" s="29"/>
-      <c r="AM19" s="29"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27" t="s">
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="19"/>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="19"/>
+      <c r="AM28" s="19"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="27"/>
-      <c r="AH20" s="27"/>
-      <c r="AI20" s="29"/>
-      <c r="AJ20" s="29"/>
-      <c r="AK20" s="29"/>
-      <c r="AL20" s="29"/>
-      <c r="AM20" s="29"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="27"/>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="27"/>
-      <c r="AH21" s="27"/>
-      <c r="AI21" s="29"/>
-      <c r="AJ21" s="29"/>
-      <c r="AK21" s="29"/>
-      <c r="AL21" s="29"/>
-      <c r="AM21" s="29"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="27"/>
-      <c r="AI22" s="29"/>
-      <c r="AJ22" s="29"/>
-      <c r="AK22" s="29"/>
-      <c r="AL22" s="29"/>
-      <c r="AM22" s="29"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="K23" s="21"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH23" s="27"/>
-      <c r="AI23" s="29"/>
-      <c r="AJ23" s="29"/>
-      <c r="AK23" s="29"/>
-      <c r="AL23" s="29"/>
-      <c r="AM23" s="29"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="33"/>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH24" s="27"/>
-      <c r="AI24" s="29"/>
-      <c r="AJ24" s="29"/>
-      <c r="AK24" s="29"/>
-      <c r="AL24" s="29"/>
-      <c r="AM24" s="29"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="8"/>
-      <c r="AD26" s="8"/>
-      <c r="AE26" s="8"/>
-      <c r="AF26" s="8"/>
-      <c r="AG26" s="8"/>
-      <c r="AH26" s="8"/>
-      <c r="AI26" s="8"/>
-      <c r="AJ26" s="8"/>
-      <c r="AK26" s="8"/>
-      <c r="AL26" s="8"/>
-      <c r="AM26" s="8"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="36"/>
-      <c r="AA29" s="36"/>
-      <c r="AB29" s="36"/>
-      <c r="AC29" s="36"/>
-      <c r="AD29" s="36"/>
-      <c r="AE29" s="36"/>
-      <c r="AF29" s="36"/>
-      <c r="AG29" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH29" s="36"/>
-      <c r="AI29" s="36"/>
-      <c r="AJ29" s="36"/>
-      <c r="AK29" s="36"/>
-      <c r="AL29" s="36"/>
-      <c r="AM29" s="36"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="J30" s="39"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="36"/>
-      <c r="AA30" s="36"/>
-      <c r="AB30" s="36"/>
-      <c r="AC30" s="36"/>
-      <c r="AD30" s="36"/>
-      <c r="AE30" s="36"/>
-      <c r="AF30" s="36"/>
-      <c r="AG30" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH30" s="36"/>
-      <c r="AI30" s="36"/>
-      <c r="AJ30" s="36"/>
-      <c r="AK30" s="36"/>
-      <c r="AL30" s="36"/>
-      <c r="AM30" s="36"/>
-    </row>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="19"/>
+      <c r="AJ29" s="19"/>
+      <c r="AK29" s="19"/>
+      <c r="AL29" s="19"/>
+      <c r="AM29" s="19"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="J31" s="39"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="36"/>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="36"/>
-      <c r="AC31" s="36"/>
-      <c r="AD31" s="36"/>
-      <c r="AE31" s="36"/>
-      <c r="AF31" s="36"/>
-      <c r="AG31" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH31" s="36"/>
-      <c r="AI31" s="36"/>
-      <c r="AJ31" s="36"/>
-      <c r="AK31" s="36"/>
-      <c r="AL31" s="36"/>
-      <c r="AM31" s="36"/>
+      <c r="L31" s="21"/>
     </row>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
@@ -3108,15 +2956,16 @@
     <row r="714" ht="15.75" customHeight="1"/>
     <row r="715" ht="15.75" customHeight="1"/>
     <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="J2:K15 J17:K24">
+    <dataValidation type="list" allowBlank="1" sqref="J2:K22">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="AE22"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3138,846 +2987,846 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="40" t="s">
+      <c r="A1" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="49"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="49"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="49"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="49"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="49"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="49"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="49"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="49"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="49"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="49"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="49"/>
-      <c r="V22" s="49"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="49"/>
-      <c r="V23" s="49"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="49"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="49"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="49"/>
+      <c r="A25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="49"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="49"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="49"/>
-      <c r="T29" s="49"/>
-      <c r="U29" s="49"/>
-      <c r="V29" s="49"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="49"/>
-      <c r="U30" s="49"/>
-      <c r="V30" s="49"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="49"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="49"/>
-      <c r="U32" s="49"/>
-      <c r="V32" s="49"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="49"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="49"/>
-      <c r="V33" s="49"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="49"/>
-      <c r="V34" s="49"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1"/>
@@ -4970,81 +4819,81 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="40" t="s">
+      <c r="A1" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="B1" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="C1" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
+      <c r="D1" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="53">
+      <c r="A2" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="35">
         <f>NOW()</f>
-        <v>44336.9432</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
+        <v>44382.15717</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -6049,1444 +5898,1444 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="40" t="s">
+      <c r="A1" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
+      <c r="A2" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="49" t="s">
+      <c r="A3" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
+      <c r="B3" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="49" t="s">
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="49"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="49"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="49"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="49"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="49"/>
-      <c r="W19" s="49"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="49"/>
-      <c r="W20" s="49"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="49"/>
-      <c r="W21" s="49"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="49"/>
-      <c r="V22" s="49"/>
-      <c r="W22" s="49"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="49"/>
-      <c r="V23" s="49"/>
-      <c r="W23" s="49"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="49"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="49"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="49"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="49"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="49"/>
-      <c r="T29" s="49"/>
-      <c r="U29" s="49"/>
-      <c r="V29" s="49"/>
-      <c r="W29" s="49"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="49"/>
-      <c r="U30" s="49"/>
-      <c r="V30" s="49"/>
-      <c r="W30" s="49"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="B32" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="49"/>
-      <c r="U32" s="49"/>
-      <c r="V32" s="49"/>
-      <c r="W32" s="49"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="49"/>
-      <c r="V33" s="49"/>
-      <c r="W33" s="49"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B34" s="5" t="str">
+      <c r="A34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="3" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>136</v>
+      <c r="C34" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" s="5" t="str">
+      <c r="A35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="3" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>137</v>
+      <c r="C35" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B36" s="5" t="str">
+      <c r="A36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="3" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B37" s="5" t="str">
+      <c r="B37" s="3" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>139</v>
+      <c r="C37" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B38" s="5" t="str">
+      <c r="A38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" s="3" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>140</v>
+      <c r="C38" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B39" s="5" t="str">
+      <c r="A39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="3" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>141</v>
+      <c r="C39" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B40" s="5" t="str">
+      <c r="A40" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" s="3" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>142</v>
+      <c r="C40" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B41" s="5" t="str">
+      <c r="A41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" s="3" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>143</v>
+      <c r="C41" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B42" s="5" t="str">
+      <c r="A42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="3" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>144</v>
+      <c r="C42" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>131</v>
+      <c r="A43" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="5" t="str">
+      <c r="B44" s="3" t="str">
         <f t="shared" ref="B44:B47" si="2">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C44, "(", ""), ")", "")), " ", "_")</f>
         <v/>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B45" s="5" t="str">
+      <c r="A45" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="3" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>146</v>
+      <c r="C45" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B46" s="5" t="str">
+      <c r="A46" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="3" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>147</v>
+      <c r="C46" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" s="5" t="str">
+      <c r="B47" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="B48" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="C48" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="55"/>
-      <c r="L48" s="55"/>
-      <c r="M48" s="55"/>
-      <c r="N48" s="48"/>
-      <c r="O48" s="48"/>
-      <c r="P48" s="48"/>
-      <c r="Q48" s="48"/>
-      <c r="R48" s="48"/>
-      <c r="S48" s="48"/>
-      <c r="T48" s="48"/>
-      <c r="U48" s="48"/>
-      <c r="V48" s="48"/>
-      <c r="W48" s="48"/>
+      <c r="A48" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="30"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="30"/>
+      <c r="U48" s="30"/>
+      <c r="V48" s="30"/>
+      <c r="W48" s="30"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="B49" s="55" t="s">
+      <c r="A49" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="C49" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="55"/>
-      <c r="L49" s="55"/>
-      <c r="M49" s="55"/>
-      <c r="N49" s="48"/>
-      <c r="O49" s="48"/>
-      <c r="P49" s="48"/>
-      <c r="Q49" s="48"/>
-      <c r="R49" s="48"/>
-      <c r="S49" s="48"/>
-      <c r="T49" s="48"/>
-      <c r="U49" s="48"/>
-      <c r="V49" s="48"/>
-      <c r="W49" s="48"/>
+      <c r="B49" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30"/>
+      <c r="R49" s="30"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="30"/>
+      <c r="U49" s="30"/>
+      <c r="V49" s="30"/>
+      <c r="W49" s="30"/>
     </row>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>155</v>
+      <c r="A51" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B52" s="5" t="s">
+      <c r="A52" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>157</v>
+      <c r="B52" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>159</v>
+      <c r="A53" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>161</v>
+      <c r="A54" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>163</v>
+      <c r="A55" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>131</v>
+      <c r="A56" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="B58" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="C58" s="55" t="s">
-        <v>166</v>
+      <c r="A58" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="B59" s="55" t="s">
+      <c r="A59" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="C59" s="55" t="s">
-        <v>168</v>
+      <c r="B59" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="B60" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="C60" s="55" t="s">
-        <v>170</v>
+      <c r="A60" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="B60" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="B61" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="C61" s="55" t="s">
-        <v>131</v>
+      <c r="A61" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B63" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="C63" s="55" t="s">
-        <v>173</v>
+      <c r="A63" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B64" s="48" t="s">
+      <c r="A64" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="C64" s="55" t="s">
-        <v>175</v>
+      <c r="B64" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B65" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="C65" s="55" t="s">
-        <v>177</v>
+      <c r="A65" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B66" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="C66" s="55" t="s">
-        <v>179</v>
+      <c r="A66" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B67" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="C67" s="55" t="s">
-        <v>181</v>
+      <c r="A67" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>184</v>
+      <c r="A69" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B70" s="5" t="s">
+      <c r="A70" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>186</v>
+      <c r="B70" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C72" s="50" t="s">
-        <v>146</v>
+      <c r="A72" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C73" s="5" t="s">
+      <c r="A73" s="3" t="s">
         <v>190</v>
       </c>
+      <c r="B73" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>131</v>
+      <c r="A74" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>
